--- a/synopsis/litSurvey.xlsx
+++ b/synopsis/litSurvey.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">Paper Title</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t xml:space="preserve">Based on DianNao architecture of single node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Survey of FPGA-based Neural Network
+Inference Accelerators</t>
   </si>
 </sst>
 </file>
@@ -156,6 +160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,12 +178,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,12 +226,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,6 +248,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -241,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,6 +468,25 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" s="2" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/synopsis/litSurvey.xlsx
+++ b/synopsis/litSurvey.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t xml:space="preserve">Paper Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Optimization</t>
   </si>
   <si>
     <t xml:space="preserve">A 240 G-ops/s Mobile Coprocessor for Deep Neural Networks</t>
@@ -147,6 +153,54 @@
     <t xml:space="preserve">A Survey of FPGA-based Neural Network
 Inference Accelerators</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fused-Layer CNN Accelerators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we observe that a previously unexplored dimen-
+sion exists in the design space of CNN accelerators that focuses on the dataﬂow across convolutional layers. We ﬁnd that we are able to fuse the processing of multiple CNN layers by modifying
+the order in which the input data are brought on chip, enabling caching of intermediate data between the evaluation of adjacent CNN layers. We demonstrate the effectiveness of our approach by constructing a fused-layer CNN accelerator for the ﬁrst ﬁve
+convolutional layers of the VGGNet-E network and comparing it to the state-of-the-art accelerator implemented on a Xilinx Virtex-7 FPGA. We ﬁnd that, by using 362KB of on-chip storage, our fused-layer accelerator minimizes off-chip feature map data
+transfer, reducing the total transfer by 95%, from 77MB down to 3.6MB per image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several ASIC implementations of CNN accelerators have
+also been proposed [2], [9]. These designs optimize different
+modules of neural networks (pooling, convolution, etc.) and
+other machine learning algorithms so as to minimize external
+data access, and they use loop tiling techniques to increase data
+locality. Although the primary goal of our work is to eliminate
+the transfer of intermediate data, we also apply similar loop
+tiling techniques to reduce the data transferred to/from off-chip
+memory for each pyramid’s initial and ﬁnal layers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep convolutional neural networks (CNNs) are rapidly rising in popularity across a wide array of ﬁelds, leading
+to signiﬁcant interest in the design of accelerators for them.
+The conventional approach to designing CNN accelerators has been to iteratively process layers to completion, forcing off-chip storage of the intermediate data. We observed that it is possible to fuse the processing of adjacent CNN layers
+by bringing data on chip using a pyramid-shaped multi-layer sliding window. The key advantage of the fused-layer evaluation strategy rests in the ability to cache inter-layer in-
+termediate data on chip, thereby minimizing off-chip transfer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory-Centric Accelerator Design for
+Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizing Loop Operation and Dataflow in FPGA Acceleration of Deep Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By searching through the configurations of design variables that minimize the estimated objectives, an efficient dataflow aimed at minimizing the data movements and memory access is determined. Then a
+corresponding architecture is also designed that fully utilizes the computing resources for high performance, which is uniform and reusable for all the layers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Space Exploration of FPGA-Based Deep Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP-DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop analytical feasibility and performance estimation models that take into account various design and platform parameters. We also present a design space exploration algorithm for obtaining the implementation with the highest performance on a given platform.</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,6 +230,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,6 +295,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,139 +379,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,35 +526,85 @@
     </row>
     <row r="15" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>2017</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="230.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
